--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects &amp; Papers\Optimal_food\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="RDI" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="DRI" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="matching" sheetId="3" r:id="rId1"/>
+    <sheet name="RDI" sheetId="1" r:id="rId2"/>
+    <sheet name="DRI" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1"/>
@@ -21,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="205">
   <si>
     <t xml:space="preserve">Total fat </t>
   </si>
@@ -77,10 +82,10 @@
     <t xml:space="preserve">50 g stays unchanged </t>
   </si>
   <si>
-    <t xml:space="preserve">New RDI or AI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Old RDI</t>
+    <t>New RDI or AI</t>
+  </si>
+  <si>
+    <t>Old RDI</t>
   </si>
   <si>
     <t xml:space="preserve">(male, age 19–30) </t>
@@ -95,7 +100,7 @@
     <t xml:space="preserve">900 μg </t>
   </si>
   <si>
-    <t xml:space="preserve">700 μg</t>
+    <t>700 μg</t>
   </si>
   <si>
     <t xml:space="preserve">Ascorbic acid (vitamin C) </t>
@@ -107,7 +112,7 @@
     <t xml:space="preserve">90 mg </t>
   </si>
   <si>
-    <t xml:space="preserve">75 mg</t>
+    <t>75 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Cholecalciferol (vitamin D) </t>
@@ -119,7 +124,7 @@
     <t xml:space="preserve">15 μg </t>
   </si>
   <si>
-    <t xml:space="preserve">15 μg</t>
+    <t>15 μg</t>
   </si>
   <si>
     <t xml:space="preserve">Tocopherol (vitamin E) </t>
@@ -131,7 +136,7 @@
     <t xml:space="preserve">15 mg </t>
   </si>
   <si>
-    <t xml:space="preserve">15 mg</t>
+    <t>15 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Vitamin K </t>
@@ -143,7 +148,7 @@
     <t xml:space="preserve">120 μg </t>
   </si>
   <si>
-    <t xml:space="preserve">90 μg</t>
+    <t>90 μg</t>
   </si>
   <si>
     <t xml:space="preserve">Thiamin (vitamin B1) </t>
@@ -155,7 +160,7 @@
     <t xml:space="preserve">1.2 mg </t>
   </si>
   <si>
-    <t xml:space="preserve">1.1 mg</t>
+    <t>1.1 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Riboflavin (vitamin B2) </t>
@@ -176,7 +181,7 @@
     <t xml:space="preserve">16 mg </t>
   </si>
   <si>
-    <t xml:space="preserve">14 mg</t>
+    <t>14 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Pyridoxine (vitamin B6) </t>
@@ -185,7 +190,7 @@
     <t xml:space="preserve">2 mg </t>
   </si>
   <si>
-    <t xml:space="preserve">1.3 mg</t>
+    <t>1.3 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Folate </t>
@@ -194,7 +199,7 @@
     <t xml:space="preserve">400 μg </t>
   </si>
   <si>
-    <t xml:space="preserve">400 μg</t>
+    <t>400 μg</t>
   </si>
   <si>
     <t xml:space="preserve">Cobalamine (vitamin B12) </t>
@@ -206,7 +211,7 @@
     <t xml:space="preserve">2.4 μg </t>
   </si>
   <si>
-    <t xml:space="preserve">2.4 μg</t>
+    <t>2.4 μg</t>
   </si>
   <si>
     <t xml:space="preserve">Pantothenic acid (vitamin B5) </t>
@@ -218,7 +223,7 @@
     <t xml:space="preserve">5 mg </t>
   </si>
   <si>
-    <t xml:space="preserve">5 mg</t>
+    <t>5 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Biotin </t>
@@ -230,7 +235,7 @@
     <t xml:space="preserve">30 μg </t>
   </si>
   <si>
-    <t xml:space="preserve">30 μg</t>
+    <t>30 μg</t>
   </si>
   <si>
     <t xml:space="preserve">Choline </t>
@@ -242,7 +247,7 @@
     <t xml:space="preserve">550 mg </t>
   </si>
   <si>
-    <t xml:space="preserve">425 mg</t>
+    <t>425 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Calcium </t>
@@ -254,7 +259,7 @@
     <t xml:space="preserve">1300 mg </t>
   </si>
   <si>
-    <t xml:space="preserve">1300 mg</t>
+    <t>1300 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Chromium </t>
@@ -263,7 +268,7 @@
     <t xml:space="preserve">35 μg* </t>
   </si>
   <si>
-    <t xml:space="preserve">25 μg*</t>
+    <t>25 μg*</t>
   </si>
   <si>
     <t xml:space="preserve">Copper </t>
@@ -272,7 +277,7 @@
     <t xml:space="preserve">2000 μg </t>
   </si>
   <si>
-    <t xml:space="preserve">900 μg</t>
+    <t>900 μg</t>
   </si>
   <si>
     <t xml:space="preserve">Fluoride </t>
@@ -281,7 +286,7 @@
     <t xml:space="preserve">4 mg* </t>
   </si>
   <si>
-    <t xml:space="preserve">3 mg*</t>
+    <t>3 mg*</t>
   </si>
   <si>
     <t xml:space="preserve">Iodine </t>
@@ -290,7 +295,7 @@
     <t xml:space="preserve">150 μg </t>
   </si>
   <si>
-    <t xml:space="preserve">150 μg</t>
+    <t>150 μg</t>
   </si>
   <si>
     <t xml:space="preserve">Iron </t>
@@ -302,7 +307,7 @@
     <t xml:space="preserve">8 mg </t>
   </si>
   <si>
-    <t xml:space="preserve">18 mg</t>
+    <t>18 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Magnesium </t>
@@ -311,7 +316,7 @@
     <t xml:space="preserve">400 mg </t>
   </si>
   <si>
-    <t xml:space="preserve">310 mg</t>
+    <t>310 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Manganese </t>
@@ -320,7 +325,7 @@
     <t xml:space="preserve">2.3 mg* </t>
   </si>
   <si>
-    <t xml:space="preserve">1.8 mg*</t>
+    <t>1.8 mg*</t>
   </si>
   <si>
     <t xml:space="preserve">Molybdenum </t>
@@ -332,7 +337,7 @@
     <t xml:space="preserve">45 μg </t>
   </si>
   <si>
-    <t xml:space="preserve">45 μg</t>
+    <t>45 μg</t>
   </si>
   <si>
     <t xml:space="preserve">Phosphorus </t>
@@ -341,7 +346,7 @@
     <t xml:space="preserve">700 mg </t>
   </si>
   <si>
-    <t xml:space="preserve">700 mg</t>
+    <t>700 mg</t>
   </si>
   <si>
     <t xml:space="preserve">Selenium </t>
@@ -353,7 +358,7 @@
     <t xml:space="preserve">55 μg </t>
   </si>
   <si>
-    <t xml:space="preserve">55 μg</t>
+    <t>55 μg</t>
   </si>
   <si>
     <t xml:space="preserve">Zinc </t>
@@ -362,19 +367,19 @@
     <t xml:space="preserve">11 mg </t>
   </si>
   <si>
-    <t xml:space="preserve">8 mg</t>
+    <t>8 mg</t>
   </si>
   <si>
     <t xml:space="preserve">4.7 g </t>
   </si>
   <si>
-    <t xml:space="preserve">4.7 g</t>
+    <t>4.7 g</t>
   </si>
   <si>
     <t xml:space="preserve">1.5 g* </t>
   </si>
   <si>
-    <t xml:space="preserve">1.5 g*</t>
+    <t>1.5 g*</t>
   </si>
   <si>
     <t xml:space="preserve">Chloride </t>
@@ -386,147 +391,267 @@
     <t xml:space="preserve">2.3 g* </t>
   </si>
   <si>
-    <t xml:space="preserve">Nutrient</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EAR</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Highest RDA/AI</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UL[7]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin A</t>
-  </si>
-  <si>
-    <t xml:space="preserve">µg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Thiamin (B1)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ND</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Riboflavin (B2)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Niacin (B3)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Pantothenic acid (B5)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin B6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Biotin (B7)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Folate (B9)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cyanocobalamin (B12)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin C</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin D</t>
-  </si>
-  <si>
-    <t xml:space="preserve">α-tocopherol (Vitamin E)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Vitamin K</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Choline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calcium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chloride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Chromium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Copper</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fluoride</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iodine</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Iron</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Magnesium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Manganese</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Molybdenum</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Phosphorus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Potassium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Selenium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sodium</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Zinc</t>
+    <t>Nutrient</t>
+  </si>
+  <si>
+    <t>EAR</t>
+  </si>
+  <si>
+    <t>Highest RDA/AI</t>
+  </si>
+  <si>
+    <t>UL[7]</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Vitamin A</t>
+  </si>
+  <si>
+    <t>µg</t>
+  </si>
+  <si>
+    <t>Thiamin (B1)</t>
+  </si>
+  <si>
+    <t>ND</t>
+  </si>
+  <si>
+    <t>mg</t>
+  </si>
+  <si>
+    <t>Riboflavin (B2)</t>
+  </si>
+  <si>
+    <t>Niacin (B3)</t>
+  </si>
+  <si>
+    <t>Pantothenic acid (B5)</t>
+  </si>
+  <si>
+    <t>NE</t>
+  </si>
+  <si>
+    <t>Vitamin B6</t>
+  </si>
+  <si>
+    <t>Biotin (B7)</t>
+  </si>
+  <si>
+    <t>Folate (B9)</t>
+  </si>
+  <si>
+    <t>Cyanocobalamin (B12)</t>
+  </si>
+  <si>
+    <t>Vitamin C</t>
+  </si>
+  <si>
+    <t>Vitamin D</t>
+  </si>
+  <si>
+    <t>α-tocopherol (Vitamin E)</t>
+  </si>
+  <si>
+    <t>Vitamin K</t>
+  </si>
+  <si>
+    <t>Choline</t>
+  </si>
+  <si>
+    <t>Calcium</t>
+  </si>
+  <si>
+    <t>Chloride</t>
+  </si>
+  <si>
+    <t>Chromium</t>
+  </si>
+  <si>
+    <t>Copper</t>
+  </si>
+  <si>
+    <t>Fluoride</t>
+  </si>
+  <si>
+    <t>Iodine</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Manganese</t>
+  </si>
+  <si>
+    <t>Molybdenum</t>
+  </si>
+  <si>
+    <t>Phosphorus</t>
+  </si>
+  <si>
+    <t>Potassium</t>
+  </si>
+  <si>
+    <t>Selenium</t>
+  </si>
+  <si>
+    <t>Sodium</t>
+  </si>
+  <si>
+    <t>Zinc</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Energy</t>
+  </si>
+  <si>
+    <t>Protein</t>
+  </si>
+  <si>
+    <t>Total lipid (fat)</t>
+  </si>
+  <si>
+    <t>Carbohydrate, by difference</t>
+  </si>
+  <si>
+    <t>Fiber, total dietary</t>
+  </si>
+  <si>
+    <t>Sugars, total</t>
+  </si>
+  <si>
+    <t>Calcium, Ca</t>
+  </si>
+  <si>
+    <t>Iron, Fe</t>
+  </si>
+  <si>
+    <t>Magnesium, Mg</t>
+  </si>
+  <si>
+    <t>Phosphorus, P</t>
+  </si>
+  <si>
+    <t>Potassium, K</t>
+  </si>
+  <si>
+    <t>Sodium, Na</t>
+  </si>
+  <si>
+    <t>Zinc, Zn</t>
+  </si>
+  <si>
+    <t>Vitamin C, total ascorbic acid</t>
+  </si>
+  <si>
+    <t>Thiamin</t>
+  </si>
+  <si>
+    <t>Riboflavin</t>
+  </si>
+  <si>
+    <t>Niacin</t>
+  </si>
+  <si>
+    <t>Vitamin B-6</t>
+  </si>
+  <si>
+    <t>Folate, DFE</t>
+  </si>
+  <si>
+    <t>Vitamin B-12</t>
+  </si>
+  <si>
+    <t>Vitamin A, RAE</t>
+  </si>
+  <si>
+    <t>Vitamin A, IU</t>
+  </si>
+  <si>
+    <t>Vitamin E (alpha-tocopherol)</t>
+  </si>
+  <si>
+    <t>Vitamin D (D2 + D3)</t>
+  </si>
+  <si>
+    <t>Vitamin K (phylloquinone)</t>
+  </si>
+  <si>
+    <t>Fatty acids, total saturated</t>
+  </si>
+  <si>
+    <t>Fatty acids, total monounsaturated</t>
+  </si>
+  <si>
+    <t>Fatty acids, total polyunsaturated</t>
+  </si>
+  <si>
+    <t>Fatty acids, total trans</t>
+  </si>
+  <si>
+    <t>Cholesterol</t>
+  </si>
+  <si>
+    <t>mean</t>
+  </si>
+  <si>
+    <t>RDI</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>kcal</t>
+  </si>
+  <si>
+    <t>IU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">μg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg </t>
+  </si>
+  <si>
+    <t xml:space="preserve">μg* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">mg* </t>
+  </si>
+  <si>
+    <t xml:space="preserve">g </t>
+  </si>
+  <si>
+    <t xml:space="preserve">g* </t>
+  </si>
+  <si>
+    <t>2000 </t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>nutrient</t>
+  </si>
+  <si>
+    <t>crop_unit</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="12"/>
@@ -541,23 +666,60 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
+      <b/>
       <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
@@ -565,90 +727,1624 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="6">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4472C4"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B5:E46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="23.48"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="3" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="19.45"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="29.59"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="7" style="1" width="11.52"/>
+    <col min="2" max="2" width="5.88671875" customWidth="1"/>
+    <col min="3" max="3" width="22.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="12"/>
+    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="14" max="14" width="23" customWidth="1"/>
+    <col min="20" max="20" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="12" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E4" s="12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="E5" s="12">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>192</v>
+      </c>
+      <c r="E6" s="12">
+        <v>275</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K6" s="1">
+        <f>AVERAGE(L6:M6)</f>
+        <v>800</v>
+      </c>
+      <c r="L6" s="8">
+        <v>900</v>
+      </c>
+      <c r="M6" s="8">
+        <v>700</v>
+      </c>
+      <c r="N6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O6" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="B7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>192</v>
+      </c>
+      <c r="E7" s="12">
+        <v>28</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K7" s="1">
+        <f t="shared" ref="K7:K34" si="0">AVERAGE(L7:M7)</f>
+        <v>82.5</v>
+      </c>
+      <c r="L7" s="8">
+        <v>90</v>
+      </c>
+      <c r="M7" s="8">
+        <v>75</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="O7" s="8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>192</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K8" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L8" s="8">
+        <v>15</v>
+      </c>
+      <c r="M8" s="8">
+        <v>15</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>130</v>
+      </c>
+      <c r="C9" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" s="12">
+        <v>1300</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K9" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L9" s="8">
+        <v>15</v>
+      </c>
+      <c r="M9" s="8">
+        <v>15</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="B10" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" t="s">
+        <v>90</v>
+      </c>
+      <c r="D10" t="s">
+        <v>196</v>
+      </c>
+      <c r="E10" s="12">
+        <v>13</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K10" s="1">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+      <c r="L10" s="8">
+        <v>120</v>
+      </c>
+      <c r="M10" s="8">
+        <v>90</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" t="s">
+        <v>130</v>
+      </c>
+      <c r="C11" t="s">
+        <v>94</v>
+      </c>
+      <c r="D11" t="s">
+        <v>196</v>
+      </c>
+      <c r="E11" s="12">
+        <v>355</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K11" s="1">
+        <f t="shared" si="0"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="L11" s="8">
+        <v>1.2</v>
+      </c>
+      <c r="M11" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N11" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="O11" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="B12" t="s">
+        <v>130</v>
+      </c>
+      <c r="C12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" t="s">
+        <v>196</v>
+      </c>
+      <c r="E12" s="12">
+        <v>700</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K12" s="1">
+        <f t="shared" si="0"/>
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="L12" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="M12" s="8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N12" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="B13" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E13" s="13">
+        <v>4700</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K13" s="1">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="L13" s="8">
+        <v>16</v>
+      </c>
+      <c r="M13" s="8">
+        <v>14</v>
+      </c>
+      <c r="N13" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="O13" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="U13" s="1"/>
+    </row>
+    <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E14" s="13">
+        <v>1500</v>
+      </c>
+      <c r="F14" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3</v>
+      </c>
+      <c r="L14" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="M14" s="8">
+        <v>1.3</v>
+      </c>
+      <c r="N14" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="U14" s="1"/>
+    </row>
+    <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="B15" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" t="s">
+        <v>111</v>
+      </c>
+      <c r="D15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E15" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K15" s="1">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="L15" s="8">
+        <v>400</v>
+      </c>
+      <c r="M15" s="8">
+        <v>400</v>
+      </c>
+      <c r="N15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="U15" s="1"/>
+    </row>
+    <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="B16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>196</v>
+      </c>
+      <c r="E16" s="12">
+        <v>82.5</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.4</v>
+      </c>
+      <c r="L16" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="M16" s="8">
+        <v>2.4</v>
+      </c>
+      <c r="N16" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="O16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="U16" s="1"/>
+    </row>
+    <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+      <c r="C17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" t="s">
+        <v>196</v>
+      </c>
+      <c r="E17" s="12">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K17" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="L17" s="8">
+        <v>5</v>
+      </c>
+      <c r="M17" s="8">
+        <v>5</v>
+      </c>
+      <c r="N17" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O17" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="U17" s="1"/>
+    </row>
+    <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="B18" t="s">
+        <v>130</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>196</v>
+      </c>
+      <c r="E18" s="12">
+        <v>1.2000000000000002</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K18" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L18" s="8">
+        <v>30</v>
+      </c>
+      <c r="M18" s="8">
+        <v>30</v>
+      </c>
+      <c r="N18" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="O18" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="U18" s="1"/>
+    </row>
+    <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>176</v>
+      </c>
+      <c r="B19" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>196</v>
+      </c>
+      <c r="E19" s="12">
+        <v>15</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K19" s="1">
+        <f t="shared" si="0"/>
+        <v>487.5</v>
+      </c>
+      <c r="L19" s="8">
+        <v>550</v>
+      </c>
+      <c r="M19" s="8">
+        <v>425</v>
+      </c>
+      <c r="N19" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="O19" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="U19" s="1"/>
+    </row>
+    <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B20" t="s">
+        <v>130</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>196</v>
+      </c>
+      <c r="E20" s="12">
+        <v>1.3</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K20" s="1">
+        <f t="shared" si="0"/>
+        <v>1300</v>
+      </c>
+      <c r="L20" s="8">
+        <v>1300</v>
+      </c>
+      <c r="M20" s="8">
+        <v>1300</v>
+      </c>
+      <c r="N20" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="O20" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="U20" s="1"/>
+    </row>
+    <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B21" t="s">
+        <v>127</v>
+      </c>
+      <c r="C21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s">
+        <v>195</v>
+      </c>
+      <c r="E21" s="12">
+        <v>400</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="J21" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="K21" s="1">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="L21" s="8">
+        <v>35</v>
+      </c>
+      <c r="M21" s="8">
+        <v>25</v>
+      </c>
+      <c r="N21" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="O21" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="U21" s="1"/>
+    </row>
+    <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>179</v>
+      </c>
+      <c r="B22" t="s">
+        <v>127</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>195</v>
+      </c>
+      <c r="E22" s="12">
+        <v>2.4</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K22" s="1">
+        <f t="shared" si="0"/>
+        <v>900</v>
+      </c>
+      <c r="L22" s="8">
+        <v>900</v>
+      </c>
+      <c r="M22" s="8">
+        <v>900</v>
+      </c>
+      <c r="N22" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="O22" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="U22" s="1"/>
+    </row>
+    <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>180</v>
+      </c>
+      <c r="B23" t="s">
+        <v>127</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>195</v>
+      </c>
+      <c r="E23" s="12">
+        <v>800</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" s="1">
+        <f t="shared" si="0"/>
+        <v>3.5</v>
+      </c>
+      <c r="L23" s="8">
+        <v>4</v>
+      </c>
+      <c r="M23" s="8">
+        <v>3</v>
+      </c>
+      <c r="N23" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O23" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="U23" s="1"/>
+    </row>
+    <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>181</v>
+      </c>
+      <c r="B24" t="s">
+        <v>194</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K24" s="1">
+        <f t="shared" si="0"/>
+        <v>150</v>
+      </c>
+      <c r="L24" s="8">
+        <v>150</v>
+      </c>
+      <c r="M24" s="8">
+        <v>150</v>
+      </c>
+      <c r="N24" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="O24" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+    </row>
+    <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>182</v>
+      </c>
+      <c r="B25" t="s">
+        <v>130</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E25" s="12">
+        <v>15</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K25" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="L25" s="8">
+        <v>8</v>
+      </c>
+      <c r="M25" s="8">
+        <v>18</v>
+      </c>
+      <c r="N25" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="O25" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+    </row>
+    <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>183</v>
+      </c>
+      <c r="B26" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>195</v>
+      </c>
+      <c r="E26" s="12">
+        <v>15</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="J26" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K26" s="1">
+        <f t="shared" si="0"/>
+        <v>355</v>
+      </c>
+      <c r="L26" s="8">
+        <v>400</v>
+      </c>
+      <c r="M26" s="8">
+        <v>310</v>
+      </c>
+      <c r="N26" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="O26" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="T26" s="1"/>
+      <c r="U26" s="1"/>
+    </row>
+    <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="J27" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="K27" s="1">
+        <f t="shared" si="0"/>
+        <v>2.0499999999999998</v>
+      </c>
+      <c r="L27" s="8">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M27" s="8">
+        <v>1.8</v>
+      </c>
+      <c r="N27" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O27" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="U27" s="1"/>
+    </row>
+    <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>184</v>
+      </c>
+      <c r="B28" t="s">
+        <v>127</v>
+      </c>
+      <c r="C28" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" t="s">
+        <v>195</v>
+      </c>
+      <c r="E28" s="12">
+        <v>105</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
+        <v>45</v>
+      </c>
+      <c r="L28" s="8">
+        <v>45</v>
+      </c>
+      <c r="M28" s="8">
+        <v>45</v>
+      </c>
+      <c r="N28" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="O28" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1"/>
+    </row>
+    <row r="29" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>185</v>
+      </c>
+      <c r="B29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" t="s">
+        <v>192</v>
+      </c>
+      <c r="E29" s="12">
+        <v>20</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="0"/>
+        <v>700</v>
+      </c>
+      <c r="L29" s="8">
+        <v>700</v>
+      </c>
+      <c r="M29" s="8">
+        <v>700</v>
+      </c>
+      <c r="N29" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O29" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="T29" s="1"/>
+      <c r="U29" s="1"/>
+    </row>
+    <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>186</v>
+      </c>
+      <c r="B30" t="s">
+        <v>192</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="L30" s="8">
+        <v>55</v>
+      </c>
+      <c r="M30" s="8">
+        <v>55</v>
+      </c>
+      <c r="N30" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="O30" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="T30" s="1"/>
+      <c r="U30" s="1"/>
+    </row>
+    <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B31" t="s">
+        <v>192</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="0"/>
+        <v>9.5</v>
+      </c>
+      <c r="L31" s="8">
+        <v>11</v>
+      </c>
+      <c r="M31" s="8">
+        <v>8</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="T31" s="1"/>
+      <c r="U31" s="1"/>
+    </row>
+    <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>188</v>
+      </c>
+      <c r="B32" t="s">
+        <v>192</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+      <c r="L32" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="M32" s="8">
+        <v>4.7</v>
+      </c>
+      <c r="N32" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="O32" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="U32" s="1"/>
+    </row>
+    <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>189</v>
+      </c>
+      <c r="B33" t="s">
+        <v>130</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" t="s">
+        <v>196</v>
+      </c>
+      <c r="E33" s="12">
+        <v>300</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J33" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="0"/>
+        <v>1.5</v>
+      </c>
+      <c r="L33" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="M33" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="N33" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="O33" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="U33" s="1"/>
+    </row>
+    <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="J34" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="0"/>
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="L34" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M34" s="9">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="N34" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="O34" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="T34" s="1"/>
+      <c r="U34" s="1"/>
+    </row>
+    <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T35" s="1"/>
+      <c r="U35" s="1"/>
+    </row>
+    <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="U36" s="1"/>
+    </row>
+    <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="T37" s="1"/>
+      <c r="U37" s="1"/>
+    </row>
+    <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="K38" s="1"/>
+      <c r="U38" s="1"/>
+    </row>
+    <row r="39" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J39" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="U39" s="1"/>
+    </row>
+    <row r="40" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="U40" s="1"/>
+    </row>
+    <row r="41" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="T41" s="1"/>
+      <c r="U41" s="1"/>
+    </row>
+    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I42" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J42" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K42" s="1"/>
+    </row>
+    <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J43" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K43" s="1"/>
+    </row>
+    <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I44" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="K44" s="1"/>
+    </row>
+    <row r="45" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I45" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="K45" s="1"/>
+    </row>
+    <row r="46" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="I46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J46" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K46" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A5:AMK46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.5546875" style="1"/>
+    <col min="2" max="2" width="23.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" style="1"/>
+    <col min="4" max="4" width="18.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.44140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29.5546875" style="1" customWidth="1"/>
+    <col min="7" max="1025" width="11.5546875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>0</v>
       </c>
@@ -656,7 +2352,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -664,7 +2360,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
         <v>4</v>
       </c>
@@ -672,7 +2368,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
@@ -680,7 +2376,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
         <v>8</v>
       </c>
@@ -688,7 +2384,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
         <v>10</v>
       </c>
@@ -696,7 +2392,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
         <v>12</v>
       </c>
@@ -704,7 +2400,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
         <v>14</v>
       </c>
@@ -712,7 +2408,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
         <v>16</v>
       </c>
@@ -720,12 +2416,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
       <c r="D16" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C17" s="2" t="s">
         <v>19</v>
       </c>
@@ -735,8 +2431,11 @@
       <c r="E17" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
         <v>22</v>
       </c>
@@ -750,7 +2449,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
         <v>25</v>
       </c>
@@ -764,7 +2463,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
         <v>29</v>
       </c>
@@ -778,7 +2477,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
         <v>33</v>
       </c>
@@ -792,7 +2491,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
         <v>37</v>
       </c>
@@ -806,7 +2505,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
         <v>41</v>
       </c>
@@ -820,7 +2519,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
         <v>45</v>
       </c>
@@ -834,7 +2533,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
         <v>48</v>
       </c>
@@ -848,7 +2547,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
         <v>52</v>
       </c>
@@ -862,7 +2561,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>55</v>
       </c>
@@ -876,7 +2575,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
         <v>58</v>
       </c>
@@ -890,7 +2589,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
         <v>62</v>
       </c>
@@ -904,7 +2603,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
         <v>66</v>
       </c>
@@ -918,7 +2617,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
         <v>70</v>
       </c>
@@ -932,7 +2631,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
         <v>74</v>
       </c>
@@ -946,7 +2645,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>78</v>
       </c>
@@ -960,7 +2659,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
         <v>81</v>
       </c>
@@ -974,7 +2673,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
         <v>84</v>
       </c>
@@ -985,7 +2684,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
         <v>87</v>
       </c>
@@ -999,7 +2698,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>90</v>
       </c>
@@ -1013,7 +2712,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
         <v>94</v>
       </c>
@@ -1027,7 +2726,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>97</v>
       </c>
@@ -1041,7 +2740,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>100</v>
       </c>
@@ -1055,7 +2754,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
         <v>104</v>
       </c>
@@ -1069,7 +2768,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
         <v>107</v>
       </c>
@@ -1083,7 +2782,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
@@ -1097,7 +2796,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +2807,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
         <v>6</v>
       </c>
@@ -1119,7 +2818,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="1" t="s">
         <v>118</v>
       </c>
@@ -1134,37 +2833,35 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
-  <dimension ref="B4:H35"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A4:AMK35"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A18" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G40" activeCellId="0" sqref="G40"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="4" min="1" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="3" width="16.67"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="7" min="6" style="3" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="3" width="77.39"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="3" width="11.52"/>
+    <col min="1" max="1" width="11.5546875" style="3"/>
+    <col min="2" max="2" width="26.6640625" style="3" customWidth="1"/>
+    <col min="3" max="4" width="11.5546875" style="3"/>
+    <col min="5" max="5" width="16.6640625" style="3" customWidth="1"/>
+    <col min="6" max="7" width="11.5546875" style="3"/>
+    <col min="8" max="8" width="77.33203125" style="3" customWidth="1"/>
+    <col min="9" max="1025" width="11.5546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1172,7 +2869,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
     </row>
-    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
@@ -1180,7 +2877,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" spans="2:8" ht="27.6" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>121</v>
       </c>
@@ -1199,17 +2896,17 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="C7" s="5" t="n">
+      <c r="C7" s="5">
         <v>625</v>
       </c>
-      <c r="D7" s="5" t="n">
+      <c r="D7" s="5">
         <v>900</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="5">
         <v>3000</v>
       </c>
       <c r="F7" s="5" t="s">
@@ -1218,14 +2915,14 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="C8" s="5" t="n">
+      <c r="C8" s="5">
         <v>1</v>
       </c>
-      <c r="D8" s="5" t="n">
+      <c r="D8" s="5">
         <v>1.2</v>
       </c>
       <c r="E8" s="5" t="s">
@@ -1237,14 +2934,14 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="C9" s="5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D9" s="5" t="n">
+      <c r="C9" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D9" s="5">
         <v>1.3</v>
       </c>
       <c r="E9" s="5" t="s">
@@ -1256,17 +2953,17 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="C10" s="5" t="n">
+      <c r="C10" s="5">
         <v>12</v>
       </c>
-      <c r="D10" s="5" t="n">
+      <c r="D10" s="5">
         <v>16</v>
       </c>
-      <c r="E10" s="5" t="n">
+      <c r="E10" s="5">
         <v>35</v>
       </c>
       <c r="F10" s="5" t="s">
@@ -1275,14 +2972,14 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B11" s="3" t="s">
         <v>133</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D11" s="5" t="n">
+      <c r="D11" s="5">
         <v>5</v>
       </c>
       <c r="E11" s="5" t="s">
@@ -1294,17 +2991,17 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B12" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="5" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="D12" s="5" t="n">
+      <c r="C12" s="5">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D12" s="5">
         <v>1.3</v>
       </c>
-      <c r="E12" s="5" t="n">
+      <c r="E12" s="5">
         <v>100</v>
       </c>
       <c r="F12" s="5" t="s">
@@ -1313,14 +3010,14 @@
       <c r="G12" s="5"/>
       <c r="H12" s="5"/>
     </row>
-    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B13" s="3" t="s">
         <v>136</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="5" t="n">
+      <c r="D13" s="5">
         <v>30</v>
       </c>
       <c r="E13" s="5" t="s">
@@ -1332,17 +3029,17 @@
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
     </row>
-    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B14" s="3" t="s">
         <v>137</v>
       </c>
-      <c r="C14" s="5" t="n">
+      <c r="C14" s="5">
         <v>320</v>
       </c>
-      <c r="D14" s="5" t="n">
+      <c r="D14" s="5">
         <v>400</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="5">
         <v>1000</v>
       </c>
       <c r="F14" s="5" t="s">
@@ -1351,14 +3048,14 @@
       <c r="G14" s="5"/>
       <c r="H14" s="5"/>
     </row>
-    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B15" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="C15" s="5" t="n">
+      <c r="C15" s="5">
         <v>2</v>
       </c>
-      <c r="D15" s="5" t="n">
+      <c r="D15" s="5">
         <v>2.4</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -1370,17 +3067,17 @@
       <c r="G15" s="5"/>
       <c r="H15" s="5"/>
     </row>
-    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B16" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="C16" s="5" t="n">
+      <c r="C16" s="5">
         <v>75</v>
       </c>
-      <c r="D16" s="5" t="n">
+      <c r="D16" s="5">
         <v>90</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="5">
         <v>2000</v>
       </c>
       <c r="F16" s="5" t="s">
@@ -1389,17 +3086,17 @@
       <c r="G16" s="5"/>
       <c r="H16" s="5"/>
     </row>
-    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B17" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C17" s="5" t="n">
+      <c r="C17" s="5">
         <v>10</v>
       </c>
-      <c r="D17" s="5" t="n">
+      <c r="D17" s="5">
         <v>15</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="5">
         <v>100</v>
       </c>
       <c r="F17" s="5" t="s">
@@ -1408,17 +3105,17 @@
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
     </row>
-    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B18" s="3" t="s">
         <v>141</v>
       </c>
-      <c r="C18" s="5" t="n">
+      <c r="C18" s="5">
         <v>12</v>
       </c>
-      <c r="D18" s="5" t="n">
+      <c r="D18" s="5">
         <v>15</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="5">
         <v>1000</v>
       </c>
       <c r="F18" s="5" t="s">
@@ -1427,14 +3124,14 @@
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
     </row>
-    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B19" s="3" t="s">
         <v>142</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D19" s="5" t="n">
+      <c r="D19" s="5">
         <v>120</v>
       </c>
       <c r="E19" s="5" t="s">
@@ -1446,17 +3143,17 @@
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B20" s="3" t="s">
         <v>143</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D20" s="5" t="n">
+      <c r="D20" s="5">
         <v>550</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="5">
         <v>3500</v>
       </c>
       <c r="F20" s="5" t="s">
@@ -1465,17 +3162,17 @@
       <c r="G20" s="5"/>
       <c r="H20" s="5"/>
     </row>
-    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B21" s="3" t="s">
         <v>144</v>
       </c>
-      <c r="C21" s="5" t="n">
+      <c r="C21" s="5">
         <v>800</v>
       </c>
-      <c r="D21" s="5" t="n">
+      <c r="D21" s="5">
         <v>1000</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="5">
         <v>2500</v>
       </c>
       <c r="F21" s="5" t="s">
@@ -1484,17 +3181,17 @@
       <c r="G21" s="5"/>
       <c r="H21" s="5"/>
     </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" s="3" t="s">
         <v>145</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D22" s="5" t="n">
+      <c r="D22" s="5">
         <v>2300</v>
       </c>
-      <c r="E22" s="5" t="n">
+      <c r="E22" s="5">
         <v>3600</v>
       </c>
       <c r="F22" s="5" t="s">
@@ -1503,14 +3200,14 @@
       <c r="G22" s="5"/>
       <c r="H22" s="5"/>
     </row>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B23" s="3" t="s">
         <v>146</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D23" s="5" t="n">
+      <c r="D23" s="5">
         <v>35</v>
       </c>
       <c r="E23" s="5" t="s">
@@ -1522,17 +3219,17 @@
       <c r="G23" s="5"/>
       <c r="H23" s="5"/>
     </row>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B24" s="3" t="s">
         <v>147</v>
       </c>
-      <c r="C24" s="5" t="n">
+      <c r="C24" s="5">
         <v>700</v>
       </c>
-      <c r="D24" s="5" t="n">
+      <c r="D24" s="5">
         <v>900</v>
       </c>
-      <c r="E24" s="5" t="n">
+      <c r="E24" s="5">
         <v>10000</v>
       </c>
       <c r="F24" s="5" t="s">
@@ -1541,17 +3238,17 @@
       <c r="G24" s="5"/>
       <c r="H24" s="5"/>
     </row>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B25" s="3" t="s">
         <v>148</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D25" s="5" t="n">
+      <c r="D25" s="5">
         <v>4</v>
       </c>
-      <c r="E25" s="5" t="n">
+      <c r="E25" s="5">
         <v>10</v>
       </c>
       <c r="F25" s="5" t="s">
@@ -1560,17 +3257,17 @@
       <c r="G25" s="5"/>
       <c r="H25" s="5"/>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B26" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="C26" s="5" t="n">
+      <c r="C26" s="5">
         <v>95</v>
       </c>
-      <c r="D26" s="5" t="n">
+      <c r="D26" s="5">
         <v>150</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="5">
         <v>1100</v>
       </c>
       <c r="F26" s="5" t="s">
@@ -1579,17 +3276,17 @@
       <c r="G26" s="5"/>
       <c r="H26" s="5"/>
     </row>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B27" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="C27" s="5" t="n">
+      <c r="C27" s="5">
         <v>6</v>
       </c>
-      <c r="D27" s="5" t="n">
+      <c r="D27" s="5">
         <v>18</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="5">
         <v>45</v>
       </c>
       <c r="F27" s="5" t="s">
@@ -1598,17 +3295,17 @@
       <c r="G27" s="5"/>
       <c r="H27" s="5"/>
     </row>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B28" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="C28" s="5" t="n">
+      <c r="C28" s="5">
         <v>350</v>
       </c>
-      <c r="D28" s="5" t="n">
+      <c r="D28" s="5">
         <v>420</v>
       </c>
-      <c r="E28" s="5" t="n">
+      <c r="E28" s="5">
         <v>350</v>
       </c>
       <c r="F28" s="5" t="s">
@@ -1617,17 +3314,17 @@
       <c r="G28" s="5"/>
       <c r="H28" s="5"/>
     </row>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B29" s="3" t="s">
         <v>152</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D29" s="5" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="E29" s="5" t="n">
+      <c r="D29" s="5">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E29" s="5">
         <v>11</v>
       </c>
       <c r="F29" s="5" t="s">
@@ -1636,17 +3333,17 @@
       <c r="G29" s="5"/>
       <c r="H29" s="5"/>
     </row>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B30" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="5" t="n">
+      <c r="C30" s="5">
         <v>34</v>
       </c>
-      <c r="D30" s="5" t="n">
+      <c r="D30" s="5">
         <v>45</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="5">
         <v>2000</v>
       </c>
       <c r="F30" s="5" t="s">
@@ -1655,17 +3352,17 @@
       <c r="G30" s="5"/>
       <c r="H30" s="5"/>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="5" t="n">
+      <c r="C31" s="5">
         <v>580</v>
       </c>
-      <c r="D31" s="5" t="n">
+      <c r="D31" s="5">
         <v>700</v>
       </c>
-      <c r="E31" s="5" t="n">
+      <c r="E31" s="5">
         <v>4000</v>
       </c>
       <c r="F31" s="5" t="s">
@@ -1674,14 +3371,14 @@
       <c r="G31" s="5"/>
       <c r="H31" s="5"/>
     </row>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
         <v>155</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>134</v>
       </c>
-      <c r="D32" s="5" t="n">
+      <c r="D32" s="5">
         <v>4700</v>
       </c>
       <c r="E32" s="5" t="s">
@@ -1693,17 +3390,17 @@
       <c r="G32" s="5"/>
       <c r="H32" s="5"/>
     </row>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B33" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="5" t="n">
+      <c r="C33" s="5">
         <v>45</v>
       </c>
-      <c r="D33" s="5" t="n">
+      <c r="D33" s="5">
         <v>55</v>
       </c>
-      <c r="E33" s="5" t="n">
+      <c r="E33" s="5">
         <v>400</v>
       </c>
       <c r="F33" s="5" t="s">
@@ -1712,34 +3409,34 @@
       <c r="G33" s="5"/>
       <c r="H33" s="5"/>
     </row>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B34" s="3" t="s">
         <v>157</v>
       </c>
       <c r="C34" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="D34" s="3" t="n">
+      <c r="D34" s="3">
         <v>1500</v>
       </c>
-      <c r="E34" s="3" t="n">
+      <c r="E34" s="3">
         <v>2300</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B35" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="C35" s="3" t="n">
+      <c r="C35" s="3">
         <v>9.4</v>
       </c>
-      <c r="D35" s="3" t="n">
+      <c r="D35" s="3">
         <v>11</v>
       </c>
-      <c r="E35" s="3" t="n">
+      <c r="E35" s="3">
         <v>40</v>
       </c>
       <c r="F35" s="3" t="s">
@@ -1747,10 +3444,9 @@
       </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>

--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -15,6 +15,7 @@
     <sheet name="matching" sheetId="3" r:id="rId1"/>
     <sheet name="RDI" sheetId="1" r:id="rId2"/>
     <sheet name="DRI" sheetId="2" r:id="rId3"/>
+    <sheet name="macro_conversion" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="217">
   <si>
     <t xml:space="preserve">Total fat </t>
   </si>
@@ -601,9 +602,6 @@
     <t>mean</t>
   </si>
   <si>
-    <t>RDI</t>
-  </si>
-  <si>
     <t>g</t>
   </si>
   <si>
@@ -641,6 +639,45 @@
   </si>
   <si>
     <t>crop_unit</t>
+  </si>
+  <si>
+    <t>Inf</t>
+  </si>
+  <si>
+    <t>caronhydrate</t>
+  </si>
+  <si>
+    <t>protein</t>
+  </si>
+  <si>
+    <t>fibre</t>
+  </si>
+  <si>
+    <t>fat</t>
+  </si>
+  <si>
+    <t>kcal/g</t>
+  </si>
+  <si>
+    <t>lower limit</t>
+  </si>
+  <si>
+    <t>45-65%</t>
+  </si>
+  <si>
+    <t>10-35%</t>
+  </si>
+  <si>
+    <t>20-30%</t>
+  </si>
+  <si>
+    <t>upper limit</t>
+  </si>
+  <si>
+    <t>RDI_max</t>
+  </si>
+  <si>
+    <t>RDI_min</t>
   </si>
 </sst>
 </file>
@@ -704,18 +741,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -747,7 +778,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -757,6 +787,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1040,15 +1073,16 @@
   <dimension ref="A1:U46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.88671875" customWidth="1"/>
     <col min="2" max="2" width="5.88671875" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="5" width="8.88671875" style="12"/>
+    <col min="5" max="6" width="8.88671875" style="15"/>
     <col min="9" max="9" width="32.88671875" customWidth="1"/>
     <col min="14" max="14" width="23" customWidth="1"/>
     <col min="20" max="20" width="31.88671875" customWidth="1"/>
@@ -1056,16 +1090,28 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B1" t="s">
         <v>203</v>
       </c>
-      <c r="B1" t="s">
-        <v>204</v>
-      </c>
       <c r="D1" t="s">
-        <v>202</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>191</v>
+        <v>201</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" t="s">
+        <v>205</v>
+      </c>
+      <c r="J1">
+        <v>3.75</v>
+      </c>
+      <c r="L1" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1073,7 +1119,16 @@
         <v>159</v>
       </c>
       <c r="B2" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="I2" t="s">
+        <v>206</v>
+      </c>
+      <c r="J2">
+        <v>4</v>
+      </c>
+      <c r="L2" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1081,16 +1136,25 @@
         <v>160</v>
       </c>
       <c r="B3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C3" s="11" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>160</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
-      </c>
-      <c r="E3" s="12" t="s">
-        <v>201</v>
+        <v>192</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="I3" t="s">
+        <v>207</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1098,16 +1162,30 @@
         <v>161</v>
       </c>
       <c r="B4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E4" s="12">
+        <v>191</v>
+      </c>
+      <c r="E4" s="15">
+        <f>2000*0.1/4</f>
         <v>50</v>
+      </c>
+      <c r="F4" s="15">
+        <f>2000*0.35/4</f>
+        <v>175</v>
+      </c>
+      <c r="I4" t="s">
+        <v>208</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1115,16 +1193,21 @@
         <v>162</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E5" s="12">
-        <v>78</v>
+        <v>191</v>
+      </c>
+      <c r="E5" s="15">
+        <f>2000*0.2/9</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="F5" s="15">
+        <f>2000*0.3/9</f>
+        <v>66.666666666666671</v>
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
@@ -1132,22 +1215,27 @@
         <v>163</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
-      </c>
-      <c r="E6" s="12">
-        <v>275</v>
+        <v>191</v>
+      </c>
+      <c r="E6" s="15">
+        <f>2000*0.45/3.75</f>
+        <v>240</v>
+      </c>
+      <c r="F6" s="15">
+        <f>2000*0.65/3.75</f>
+        <v>346.66666666666669</v>
       </c>
       <c r="I6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K6" s="1">
         <f>AVERAGE(L6:M6)</f>
@@ -1171,22 +1259,25 @@
         <v>164</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
-      </c>
-      <c r="E7" s="12">
+        <v>191</v>
+      </c>
+      <c r="E7" s="15">
         <v>28</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>204</v>
       </c>
       <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K7" s="1">
         <f t="shared" ref="K7:K34" si="0">AVERAGE(L7:M7)</f>
@@ -1210,13 +1301,13 @@
         <v>165</v>
       </c>
       <c r="B8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="I8" s="1" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K8" s="1">
         <f t="shared" si="0"/>
@@ -1246,16 +1337,20 @@
         <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" s="12">
-        <v>1300</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1000</v>
+      </c>
+      <c r="F9" s="15">
+        <v>2500</v>
+      </c>
+      <c r="G9" s="11"/>
       <c r="I9" s="1" t="s">
         <v>33</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K9" s="1">
         <f t="shared" si="0"/>
@@ -1285,16 +1380,20 @@
         <v>90</v>
       </c>
       <c r="D10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="12">
-        <v>13</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E10" s="15">
+        <v>18</v>
+      </c>
+      <c r="F10" s="15">
+        <v>45</v>
+      </c>
+      <c r="G10" s="11"/>
       <c r="I10" s="1" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K10" s="1">
         <f t="shared" si="0"/>
@@ -1324,16 +1423,20 @@
         <v>94</v>
       </c>
       <c r="D11" t="s">
-        <v>196</v>
-      </c>
-      <c r="E11" s="12">
-        <v>355</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E11" s="15">
+        <v>350</v>
+      </c>
+      <c r="F11" s="15">
+        <v>420</v>
+      </c>
+      <c r="G11" s="11"/>
       <c r="I11" s="1" t="s">
         <v>41</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K11" s="1">
         <f t="shared" si="0"/>
@@ -1363,16 +1466,20 @@
         <v>104</v>
       </c>
       <c r="D12" t="s">
-        <v>196</v>
-      </c>
-      <c r="E12" s="12">
+        <v>195</v>
+      </c>
+      <c r="E12" s="15">
         <v>700</v>
       </c>
+      <c r="F12" s="15">
+        <v>4000</v>
+      </c>
+      <c r="G12" s="11"/>
       <c r="I12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K12" s="1">
         <f t="shared" si="0"/>
@@ -1401,17 +1508,21 @@
       <c r="C13" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E13" s="13">
+      <c r="D13" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="15">
         <v>4700</v>
       </c>
+      <c r="F13" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G13" s="12"/>
       <c r="I13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K13" s="1">
         <f t="shared" si="0"/>
@@ -1441,20 +1552,21 @@
       <c r="C14" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E14" s="13">
+      <c r="D14" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="E14" s="15">
         <v>1500</v>
       </c>
-      <c r="F14" s="10">
-        <v>2.2999999999999998</v>
-      </c>
+      <c r="F14" s="15">
+        <v>2300</v>
+      </c>
+      <c r="G14" s="12"/>
       <c r="I14" s="1" t="s">
         <v>52</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K14" s="1">
         <f t="shared" si="0"/>
@@ -1485,16 +1597,20 @@
         <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>196</v>
-      </c>
-      <c r="E15" s="12">
-        <v>9.5</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E15" s="15">
+        <v>11</v>
+      </c>
+      <c r="F15" s="15">
+        <v>40</v>
+      </c>
+      <c r="G15" s="11"/>
       <c r="I15" s="1" t="s">
         <v>55</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K15" s="1">
         <f t="shared" si="0"/>
@@ -1525,16 +1641,20 @@
         <v>25</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
-      </c>
-      <c r="E16" s="12">
-        <v>82.5</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E16" s="15">
+        <v>90</v>
+      </c>
+      <c r="F16" s="15">
+        <v>2000</v>
+      </c>
+      <c r="G16" s="11"/>
       <c r="I16" s="1" t="s">
         <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K16" s="1">
         <f t="shared" si="0"/>
@@ -1565,16 +1685,20 @@
         <v>41</v>
       </c>
       <c r="D17" t="s">
-        <v>196</v>
-      </c>
-      <c r="E17" s="12">
-        <v>1.1499999999999999</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E17" s="15">
+        <v>1.2</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G17" s="11"/>
       <c r="I17" s="1" t="s">
         <v>62</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K17" s="1">
         <f t="shared" si="0"/>
@@ -1605,16 +1729,20 @@
         <v>45</v>
       </c>
       <c r="D18" t="s">
-        <v>196</v>
-      </c>
-      <c r="E18" s="12">
-        <v>1.2000000000000002</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E18" s="15">
+        <v>1.3</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G18" s="11"/>
       <c r="I18" s="1" t="s">
         <v>66</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K18" s="1">
         <f t="shared" si="0"/>
@@ -1645,16 +1773,20 @@
         <v>48</v>
       </c>
       <c r="D19" t="s">
-        <v>196</v>
-      </c>
-      <c r="E19" s="12">
-        <v>15</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E19" s="15">
+        <v>16</v>
+      </c>
+      <c r="F19" s="15">
+        <v>35</v>
+      </c>
+      <c r="G19" s="11"/>
       <c r="I19" s="1" t="s">
         <v>70</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K19" s="1">
         <f t="shared" si="0"/>
@@ -1685,16 +1817,20 @@
         <v>52</v>
       </c>
       <c r="D20" t="s">
-        <v>196</v>
-      </c>
-      <c r="E20" s="12">
+        <v>195</v>
+      </c>
+      <c r="E20" s="15">
         <v>1.3</v>
       </c>
+      <c r="F20" s="15">
+        <v>100</v>
+      </c>
+      <c r="G20" s="11"/>
       <c r="I20" s="1" t="s">
         <v>74</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K20" s="1">
         <f t="shared" si="0"/>
@@ -1725,16 +1861,20 @@
         <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>195</v>
-      </c>
-      <c r="E21" s="12">
+        <v>194</v>
+      </c>
+      <c r="E21" s="15">
         <v>400</v>
       </c>
+      <c r="F21" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G21" s="11"/>
       <c r="I21" s="1" t="s">
         <v>78</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="K21" s="1">
         <f t="shared" si="0"/>
@@ -1765,16 +1905,20 @@
         <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>195</v>
-      </c>
-      <c r="E22" s="12">
+        <v>194</v>
+      </c>
+      <c r="E22" s="15">
         <v>2.4</v>
       </c>
+      <c r="F22" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="11"/>
       <c r="I22" s="1" t="s">
         <v>81</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K22" s="1">
         <f t="shared" si="0"/>
@@ -1805,16 +1949,20 @@
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>195</v>
-      </c>
-      <c r="E23" s="12">
-        <v>800</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E23" s="15">
+        <v>900</v>
+      </c>
+      <c r="F23" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G23" s="11"/>
       <c r="I23" s="1" t="s">
         <v>84</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K23" s="1">
         <f t="shared" si="0"/>
@@ -1839,13 +1987,14 @@
         <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>194</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G24" s="11"/>
       <c r="I24" s="1" t="s">
         <v>87</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K24" s="1">
         <f t="shared" si="0"/>
@@ -1877,16 +2026,20 @@
         <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>196</v>
-      </c>
-      <c r="E25" s="12">
+        <v>195</v>
+      </c>
+      <c r="E25" s="15">
         <v>15</v>
       </c>
+      <c r="F25" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G25" s="11"/>
       <c r="I25" s="1" t="s">
         <v>90</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K25" s="1">
         <f t="shared" si="0"/>
@@ -1918,16 +2071,20 @@
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>195</v>
-      </c>
-      <c r="E26" s="12">
+        <v>194</v>
+      </c>
+      <c r="E26" s="15">
         <v>15</v>
       </c>
+      <c r="F26" s="15">
+        <v>100</v>
+      </c>
+      <c r="G26" s="11"/>
       <c r="I26" s="1" t="s">
         <v>94</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K26" s="1">
         <f t="shared" si="0"/>
@@ -1953,13 +2110,14 @@
         <v>140</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="G27" s="11"/>
       <c r="I27" s="1" t="s">
         <v>97</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="K27" s="1">
         <f t="shared" si="0"/>
@@ -1990,16 +2148,20 @@
         <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>195</v>
-      </c>
-      <c r="E28" s="12">
-        <v>105</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="E28" s="15">
+        <v>120</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G28" s="11"/>
       <c r="I28" s="1" t="s">
         <v>100</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K28" s="1">
         <f t="shared" si="0"/>
@@ -2025,22 +2187,26 @@
         <v>185</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D29" t="s">
-        <v>192</v>
-      </c>
-      <c r="E29" s="12">
-        <v>20</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="E29" s="15">
+        <v>300</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G29" s="11"/>
       <c r="I29" s="1" t="s">
         <v>104</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K29" s="1">
         <f t="shared" si="0"/>
@@ -2066,13 +2232,14 @@
         <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G30" s="11"/>
       <c r="I30" s="1" t="s">
         <v>107</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K30" s="1">
         <f t="shared" si="0"/>
@@ -2098,13 +2265,14 @@
         <v>187</v>
       </c>
       <c r="B31" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G31" s="11"/>
       <c r="I31" s="1" t="s">
         <v>111</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="K31" s="1">
         <f t="shared" si="0"/>
@@ -2130,13 +2298,14 @@
         <v>188</v>
       </c>
       <c r="B32" t="s">
-        <v>192</v>
-      </c>
+        <v>191</v>
+      </c>
+      <c r="G32" s="11"/>
       <c r="I32" s="1" t="s">
         <v>8</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="K32" s="1">
         <f t="shared" si="0"/>
@@ -2167,18 +2336,22 @@
         <v>4</v>
       </c>
       <c r="D33" t="s">
-        <v>196</v>
-      </c>
-      <c r="E33" s="12">
-        <v>300</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="E33" s="15">
+        <v>20</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="G33" s="11"/>
       <c r="I33" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J33" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="K33" s="14">
+      <c r="J33" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K33" s="13">
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
@@ -2201,7 +2374,7 @@
         <v>118</v>
       </c>
       <c r="J34" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="K34" s="1">
         <f t="shared" si="0"/>
@@ -2330,7 +2503,7 @@
   <dimension ref="A5:AMK46"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:D13"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3451,4 +3624,95 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:I7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="C4:I7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="D2" t="s">
+        <v>209</v>
+      </c>
+      <c r="H2" t="s">
+        <v>210</v>
+      </c>
+      <c r="I2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="4" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4">
+        <v>3.75</v>
+      </c>
+      <c r="F4" t="s">
+        <v>211</v>
+      </c>
+      <c r="H4">
+        <f>2000*0.45/3.75</f>
+        <v>240</v>
+      </c>
+      <c r="I4">
+        <f>2000*0.65/3.75</f>
+        <v>346.66666666666669</v>
+      </c>
+    </row>
+    <row r="5" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>212</v>
+      </c>
+      <c r="H5">
+        <f>2000*0.1/4</f>
+        <v>50</v>
+      </c>
+      <c r="I5">
+        <f>2000*0.35/4</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>207</v>
+      </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D7">
+        <v>9</v>
+      </c>
+      <c r="F7" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7">
+        <f>2000*0.2/9</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="I7">
+        <f>2000*0.3/9</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/requirements.xlsx
+++ b/requirements.xlsx
@@ -12,10 +12,11 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="matching" sheetId="3" r:id="rId1"/>
-    <sheet name="RDI" sheetId="1" r:id="rId2"/>
-    <sheet name="DRI" sheetId="2" r:id="rId3"/>
-    <sheet name="macro_conversion" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId1"/>
+    <sheet name="matching" sheetId="3" r:id="rId2"/>
+    <sheet name="RDI" sheetId="1" r:id="rId3"/>
+    <sheet name="DRI" sheetId="2" r:id="rId4"/>
+    <sheet name="macro_conversion" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="216">
   <si>
     <t xml:space="preserve">Total fat </t>
   </si>
@@ -627,9 +628,6 @@
   </si>
   <si>
     <t xml:space="preserve">g* </t>
-  </si>
-  <si>
-    <t>2000 </t>
   </si>
   <si>
     <t>unit</t>
@@ -684,7 +682,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -711,45 +709,68 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
+      <color theme="2" tint="-0.499984740745262"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0" tint="-0.249977111117893"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -757,11 +778,229 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="3"/>
+      </left>
+      <right style="thin">
+        <color theme="3"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="3"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="3"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -774,20 +1013,79 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1070,10 +1368,426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:E26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.44140625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="8.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="41" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41" t="s">
+        <v>200</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39" t="s">
+        <v>192</v>
+      </c>
+      <c r="D2" s="40">
+        <v>2000</v>
+      </c>
+      <c r="E2" s="40">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="39" t="s">
+        <v>161</v>
+      </c>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D3" s="40">
+        <f>D2*0.1/4</f>
+        <v>50</v>
+      </c>
+      <c r="E3" s="40">
+        <f>E2*0.35/4</f>
+        <v>175</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="39" t="s">
+        <v>162</v>
+      </c>
+      <c r="B4" s="39"/>
+      <c r="C4" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D4" s="40">
+        <f>D2*0.2/9</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="E4" s="40">
+        <f>E2*0.3/9</f>
+        <v>66.666666666666671</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="39" t="s">
+        <v>163</v>
+      </c>
+      <c r="B5" s="39"/>
+      <c r="C5" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D5" s="40">
+        <f>D2*0.45/3.75</f>
+        <v>240</v>
+      </c>
+      <c r="E5" s="40">
+        <f>E2*0.65/3.75</f>
+        <v>346.66666666666669</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="39" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="39"/>
+      <c r="C6" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D6" s="40">
+        <v>28</v>
+      </c>
+      <c r="E6" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B7" s="39"/>
+      <c r="C7" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D7" s="40">
+        <v>1000</v>
+      </c>
+      <c r="E7" s="40">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B8" s="39"/>
+      <c r="C8" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D8" s="40">
+        <v>18</v>
+      </c>
+      <c r="E8" s="40">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B9" s="39"/>
+      <c r="C9" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D9" s="40">
+        <v>350</v>
+      </c>
+      <c r="E9" s="40">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B10" s="39"/>
+      <c r="C10" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D10" s="40">
+        <v>700</v>
+      </c>
+      <c r="E10" s="40">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B11" s="39"/>
+      <c r="C11" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D11" s="40">
+        <v>4700</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B12" s="39"/>
+      <c r="C12" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="40">
+        <v>1500</v>
+      </c>
+      <c r="E12" s="40">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="39" t="s">
+        <v>172</v>
+      </c>
+      <c r="B13" s="39"/>
+      <c r="C13" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D13" s="40">
+        <v>11</v>
+      </c>
+      <c r="E13" s="40">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A14" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D14" s="40">
+        <v>90</v>
+      </c>
+      <c r="E14" s="40">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B15" s="39"/>
+      <c r="C15" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D15" s="40">
+        <v>1.2</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="B16" s="39"/>
+      <c r="C16" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D16" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="B17" s="39"/>
+      <c r="C17" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D17" s="40">
+        <v>16</v>
+      </c>
+      <c r="E17" s="40">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A18" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="39"/>
+      <c r="C18" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D18" s="40">
+        <v>1.3</v>
+      </c>
+      <c r="E18" s="40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A19" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="B19" s="39"/>
+      <c r="C19" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D19" s="40">
+        <v>400</v>
+      </c>
+      <c r="E19" s="40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A20" s="39" t="s">
+        <v>179</v>
+      </c>
+      <c r="B20" s="39"/>
+      <c r="C20" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D20" s="40">
+        <v>2.4</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A21" s="39" t="s">
+        <v>180</v>
+      </c>
+      <c r="B21" s="39"/>
+      <c r="C21" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D21" s="40">
+        <v>900</v>
+      </c>
+      <c r="E21" s="40">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A22" s="39" t="s">
+        <v>182</v>
+      </c>
+      <c r="B22" s="39"/>
+      <c r="C22" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D22" s="40">
+        <v>15</v>
+      </c>
+      <c r="E22" s="40">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A23" s="39" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="39"/>
+      <c r="C23" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D23" s="40">
+        <v>15</v>
+      </c>
+      <c r="E23" s="40">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A24" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="B24" s="39"/>
+      <c r="C24" s="39" t="s">
+        <v>194</v>
+      </c>
+      <c r="D24" s="40">
+        <v>120</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A25" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" s="39"/>
+      <c r="C25" s="39" t="s">
+        <v>191</v>
+      </c>
+      <c r="D25" s="40">
+        <v>300</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A26" s="39" t="s">
+        <v>189</v>
+      </c>
+      <c r="B26" s="39"/>
+      <c r="C26" s="39" t="s">
+        <v>195</v>
+      </c>
+      <c r="D26" s="40">
+        <v>20</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>203</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="A1:F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1082,1270 +1796,1518 @@
     <col min="2" max="2" width="5.88671875" customWidth="1"/>
     <col min="3" max="3" width="22.33203125" customWidth="1"/>
     <col min="4" max="4" width="20.21875" customWidth="1"/>
-    <col min="5" max="6" width="8.88671875" style="15"/>
-    <col min="9" max="9" width="32.88671875" customWidth="1"/>
+    <col min="5" max="6" width="8.88671875" style="6"/>
+    <col min="9" max="9" width="32.88671875" style="14" customWidth="1"/>
+    <col min="10" max="11" width="8.88671875" style="14"/>
     <col min="14" max="14" width="23" customWidth="1"/>
     <col min="20" max="20" width="31.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A1" s="15" t="s">
+        <v>201</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="B1" t="s">
-        <v>203</v>
-      </c>
-      <c r="D1" t="s">
-        <v>201</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>216</v>
-      </c>
-      <c r="F1" s="15" t="s">
+      <c r="C1" s="15"/>
+      <c r="D1" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E1" s="16" t="s">
         <v>215</v>
       </c>
-      <c r="I1" t="s">
+      <c r="F1" s="16" t="s">
+        <v>214</v>
+      </c>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="J1" s="12">
+        <v>3.75</v>
+      </c>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+      <c r="P1" s="7"/>
+      <c r="Q1" s="7"/>
+      <c r="R1" s="7"/>
+      <c r="S1" s="7"/>
+      <c r="T1" s="7"/>
+    </row>
+    <row r="2" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="17" t="s">
+        <v>159</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="17"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="7"/>
+      <c r="H2" s="7"/>
+      <c r="I2" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="J1">
-        <v>3.75</v>
-      </c>
-      <c r="L1" t="s">
+      <c r="J2" s="12">
+        <v>4</v>
+      </c>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="M2" s="7"/>
+      <c r="N2" s="7"/>
+      <c r="O2" s="7"/>
+      <c r="P2" s="7"/>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="S2" s="7"/>
+      <c r="T2" s="7"/>
+    </row>
+    <row r="3" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
+        <v>160</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>192</v>
+      </c>
+      <c r="E3" s="18">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="18">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="J3" s="12">
+        <v>2</v>
+      </c>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+      <c r="P3" s="7"/>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="7"/>
+      <c r="T3" s="7"/>
+    </row>
+    <row r="4" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="I2" t="s">
-        <v>206</v>
-      </c>
-      <c r="J2">
-        <v>4</v>
-      </c>
-      <c r="L2" t="s">
+      <c r="C4" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="18">
+        <f>E3*0.1/4</f>
+        <v>50</v>
+      </c>
+      <c r="F4" s="18">
+        <f>F3*0.35/4</f>
+        <v>175</v>
+      </c>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="J4" s="12">
+        <v>9</v>
+      </c>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="3" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" t="s">
-        <v>192</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="D3" t="s">
-        <v>192</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>200</v>
-      </c>
-      <c r="I3" t="s">
-        <v>207</v>
-      </c>
-      <c r="J3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+    </row>
+    <row r="5" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="C5" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="15">
-        <f>2000*0.1/4</f>
-        <v>50</v>
-      </c>
-      <c r="F4" s="15">
-        <f>2000*0.35/4</f>
-        <v>175</v>
-      </c>
-      <c r="I4" t="s">
-        <v>208</v>
-      </c>
-      <c r="J4">
-        <v>9</v>
-      </c>
-      <c r="L4" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="E5" s="18">
+        <f>E3*0.2/9</f>
+        <v>44.444444444444443</v>
+      </c>
+      <c r="F5" s="18">
+        <f>F3*0.3/9</f>
+        <v>66.666666666666671</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" s="7"/>
+      <c r="T5" s="7"/>
+    </row>
+    <row r="6" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
+      <c r="C6" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E5" s="15">
-        <f>2000*0.2/9</f>
-        <v>44.444444444444443</v>
-      </c>
-      <c r="F5" s="15">
-        <f>2000*0.3/9</f>
-        <v>66.666666666666671</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" t="s">
-        <v>191</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" t="s">
-        <v>191</v>
-      </c>
-      <c r="E6" s="15">
-        <f>2000*0.45/3.75</f>
+      <c r="E6" s="18">
+        <f>E3*0.45/3.75</f>
         <v>240</v>
       </c>
-      <c r="F6" s="15">
-        <f>2000*0.65/3.75</f>
+      <c r="F6" s="18">
+        <f>F3*0.65/3.75</f>
         <v>346.66666666666669</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="J6" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K6" s="1">
+      <c r="K6" s="12">
         <f>AVERAGE(L6:M6)</f>
         <v>800</v>
       </c>
-      <c r="L6" s="8">
+      <c r="L6" s="9">
         <v>900</v>
       </c>
-      <c r="M6" s="8">
+      <c r="M6" s="9">
         <v>700</v>
       </c>
-      <c r="N6" s="8" t="s">
+      <c r="N6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O6" s="8" t="s">
+      <c r="O6" s="9" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="S6" s="7"/>
+      <c r="T6" s="7"/>
+    </row>
+    <row r="7" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="18">
         <v>28</v>
       </c>
-      <c r="F7" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="I7" s="1" t="s">
+      <c r="F7" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="J7" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K7" s="1">
+      <c r="K7" s="12">
         <f t="shared" ref="K7:K34" si="0">AVERAGE(L7:M7)</f>
         <v>82.5</v>
       </c>
-      <c r="L7" s="8">
+      <c r="L7" s="9">
         <v>90</v>
       </c>
-      <c r="M7" s="8">
+      <c r="M7" s="9">
         <v>75</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="O7" s="8" t="s">
+      <c r="O7" s="9" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A8" s="7" t="s">
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="7"/>
+      <c r="T7" s="7"/>
+    </row>
+    <row r="8" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="J8" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K8" s="1">
+      <c r="K8" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L8" s="8">
+      <c r="L8" s="9">
         <v>15</v>
       </c>
-      <c r="M8" s="8">
+      <c r="M8" s="9">
         <v>15</v>
       </c>
-      <c r="N8" s="8" t="s">
+      <c r="N8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="O8" s="8" t="s">
+      <c r="O8" s="9" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A9" s="7" t="s">
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="7"/>
+      <c r="T8" s="7"/>
+    </row>
+    <row r="9" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E9" s="15">
+      <c r="E9" s="18">
         <v>1000</v>
       </c>
-      <c r="F9" s="15">
+      <c r="F9" s="18">
         <v>2500</v>
       </c>
-      <c r="G9" s="11"/>
-      <c r="I9" s="1" t="s">
+      <c r="G9" s="10"/>
+      <c r="H9" s="7"/>
+      <c r="I9" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="J9" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K9" s="1">
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="9">
         <v>15</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="9">
         <v>15</v>
       </c>
-      <c r="N9" s="8" t="s">
+      <c r="N9" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="9" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A10" s="7" t="s">
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="7"/>
+    </row>
+    <row r="10" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="18">
         <v>18</v>
       </c>
-      <c r="F10" s="15">
+      <c r="F10" s="18">
         <v>45</v>
       </c>
-      <c r="G10" s="11"/>
-      <c r="I10" s="1" t="s">
+      <c r="G10" s="10"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="J10" s="1" t="s">
+      <c r="J10" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K10" s="1">
+      <c r="K10" s="12">
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="L10" s="8">
+      <c r="L10" s="9">
         <v>120</v>
       </c>
-      <c r="M10" s="8">
+      <c r="M10" s="9">
         <v>90</v>
       </c>
-      <c r="N10" s="8" t="s">
+      <c r="N10" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="O10" s="8" t="s">
+      <c r="O10" s="9" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="7" t="s">
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="7"/>
+      <c r="T10" s="7"/>
+    </row>
+    <row r="11" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C11" s="17" t="s">
         <v>94</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="18">
         <v>350</v>
       </c>
-      <c r="F11" s="15">
+      <c r="F11" s="18">
         <v>420</v>
       </c>
-      <c r="G11" s="11"/>
-      <c r="I11" s="1" t="s">
+      <c r="G11" s="10"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="J11" s="1" t="s">
+      <c r="J11" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K11" s="1">
+      <c r="K11" s="12">
         <f t="shared" si="0"/>
         <v>1.1499999999999999</v>
       </c>
-      <c r="L11" s="8">
+      <c r="L11" s="9">
         <v>1.2</v>
       </c>
-      <c r="M11" s="8">
+      <c r="M11" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N11" s="8" t="s">
+      <c r="N11" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="O11" s="8" t="s">
+      <c r="O11" s="9" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="12" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="7" t="s">
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="7"/>
+      <c r="T11" s="7"/>
+    </row>
+    <row r="12" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C12" s="17" t="s">
         <v>104</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E12" s="15">
+      <c r="E12" s="18">
         <v>700</v>
       </c>
-      <c r="F12" s="15">
+      <c r="F12" s="18">
         <v>4000</v>
       </c>
-      <c r="G12" s="11"/>
-      <c r="I12" s="1" t="s">
+      <c r="G12" s="10"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="J12" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K12" s="1">
+      <c r="K12" s="12">
         <f t="shared" si="0"/>
         <v>1.2000000000000002</v>
       </c>
-      <c r="L12" s="8">
+      <c r="L12" s="9">
         <v>1.3</v>
       </c>
-      <c r="M12" s="8">
+      <c r="M12" s="9">
         <v>1.1000000000000001</v>
       </c>
-      <c r="N12" s="8" t="s">
+      <c r="N12" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O12" s="8" t="s">
+      <c r="O12" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="7"/>
+      <c r="T12" s="7"/>
     </row>
     <row r="13" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E13" s="15">
+      <c r="E13" s="18">
         <v>4700</v>
       </c>
-      <c r="F13" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G13" s="12"/>
-      <c r="I13" s="1" t="s">
+      <c r="F13" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="J13" s="1" t="s">
+      <c r="J13" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K13" s="1">
+      <c r="K13" s="12">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="9">
         <v>16</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="9">
         <v>14</v>
       </c>
-      <c r="N13" s="8" t="s">
+      <c r="N13" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="O13" s="8" t="s">
+      <c r="O13" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="7"/>
+      <c r="S13" s="7"/>
+      <c r="T13" s="7"/>
       <c r="U13" s="1"/>
     </row>
     <row r="14" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C14" s="7" t="s">
+      <c r="C14" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="21" t="s">
         <v>195</v>
       </c>
-      <c r="E14" s="15">
+      <c r="E14" s="18">
         <v>1500</v>
       </c>
-      <c r="F14" s="15">
+      <c r="F14" s="18">
         <v>2300</v>
       </c>
-      <c r="G14" s="12"/>
-      <c r="I14" s="1" t="s">
+      <c r="G14" s="11"/>
+      <c r="H14" s="7"/>
+      <c r="I14" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="J14" s="1" t="s">
+      <c r="J14" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K14" s="1">
+      <c r="K14" s="12">
         <f t="shared" si="0"/>
         <v>1.3</v>
       </c>
-      <c r="L14" s="8">
+      <c r="L14" s="9">
         <v>1.3</v>
       </c>
-      <c r="M14" s="8">
+      <c r="M14" s="9">
         <v>1.3</v>
       </c>
-      <c r="N14" s="8" t="s">
+      <c r="N14" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="O14" s="8" t="s">
+      <c r="O14" s="9" t="s">
         <v>54</v>
       </c>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="7"/>
+      <c r="S14" s="7"/>
+      <c r="T14" s="7"/>
       <c r="U14" s="1"/>
     </row>
     <row r="15" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C15" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E15" s="15">
+      <c r="E15" s="18">
         <v>11</v>
       </c>
-      <c r="F15" s="15">
+      <c r="F15" s="18">
         <v>40</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="I15" s="1" t="s">
+      <c r="G15" s="10"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="1" t="s">
+      <c r="J15" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K15" s="1">
+      <c r="K15" s="12">
         <f t="shared" si="0"/>
         <v>400</v>
       </c>
-      <c r="L15" s="8">
+      <c r="L15" s="9">
         <v>400</v>
       </c>
-      <c r="M15" s="8">
+      <c r="M15" s="9">
         <v>400</v>
       </c>
-      <c r="N15" s="8" t="s">
+      <c r="N15" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="O15" s="8" t="s">
+      <c r="O15" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="7"/>
+      <c r="S15" s="7"/>
+      <c r="T15" s="7"/>
       <c r="U15" s="1"/>
     </row>
     <row r="16" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="18">
         <v>90</v>
       </c>
-      <c r="F16" s="15">
+      <c r="F16" s="18">
         <v>2000</v>
       </c>
-      <c r="G16" s="11"/>
-      <c r="I16" s="1" t="s">
+      <c r="G16" s="10"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="J16" s="1" t="s">
+      <c r="J16" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K16" s="1">
+      <c r="K16" s="12">
         <f t="shared" si="0"/>
         <v>2.4</v>
       </c>
-      <c r="L16" s="8">
+      <c r="L16" s="9">
         <v>2.4</v>
       </c>
-      <c r="M16" s="8">
+      <c r="M16" s="9">
         <v>2.4</v>
       </c>
-      <c r="N16" s="8" t="s">
+      <c r="N16" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="O16" s="8" t="s">
+      <c r="O16" s="9" t="s">
         <v>61</v>
       </c>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="7"/>
+      <c r="S16" s="7"/>
+      <c r="T16" s="7"/>
       <c r="U16" s="1"/>
     </row>
     <row r="17" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="18">
         <v>1.2</v>
       </c>
-      <c r="F17" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G17" s="11"/>
-      <c r="I17" s="1" t="s">
+      <c r="F17" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G17" s="10"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="J17" s="1" t="s">
+      <c r="J17" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K17" s="1">
+      <c r="K17" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="9">
         <v>5</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="9">
         <v>5</v>
       </c>
-      <c r="N17" s="8" t="s">
+      <c r="N17" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="O17" s="8" t="s">
+      <c r="O17" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="7"/>
+      <c r="S17" s="7"/>
+      <c r="T17" s="7"/>
       <c r="U17" s="1"/>
     </row>
     <row r="18" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C18" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D18" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="18">
         <v>1.3</v>
       </c>
-      <c r="F18" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G18" s="11"/>
-      <c r="I18" s="1" t="s">
+      <c r="F18" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G18" s="10"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="J18" s="1" t="s">
+      <c r="J18" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K18" s="1">
+      <c r="K18" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L18" s="8">
+      <c r="L18" s="9">
         <v>30</v>
       </c>
-      <c r="M18" s="8">
+      <c r="M18" s="9">
         <v>30</v>
       </c>
-      <c r="N18" s="8" t="s">
+      <c r="N18" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="O18" s="8" t="s">
+      <c r="O18" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="7"/>
+      <c r="S18" s="7"/>
+      <c r="T18" s="7"/>
       <c r="U18" s="1"/>
     </row>
     <row r="19" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="A19" s="17" t="s">
         <v>176</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C19" s="17" t="s">
         <v>48</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="18">
         <v>16</v>
       </c>
-      <c r="F19" s="15">
+      <c r="F19" s="18">
         <v>35</v>
       </c>
-      <c r="G19" s="11"/>
-      <c r="I19" s="1" t="s">
+      <c r="G19" s="10"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="J19" s="1" t="s">
+      <c r="J19" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K19" s="1">
+      <c r="K19" s="12">
         <f t="shared" si="0"/>
         <v>487.5</v>
       </c>
-      <c r="L19" s="8">
+      <c r="L19" s="9">
         <v>550</v>
       </c>
-      <c r="M19" s="8">
+      <c r="M19" s="9">
         <v>425</v>
       </c>
-      <c r="N19" s="8" t="s">
+      <c r="N19" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="O19" s="8" t="s">
+      <c r="O19" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="7"/>
+      <c r="S19" s="7"/>
+      <c r="T19" s="7"/>
       <c r="U19" s="1"/>
     </row>
     <row r="20" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="D20" t="s">
+      <c r="D20" s="17" t="s">
         <v>195</v>
       </c>
-      <c r="E20" s="15">
+      <c r="E20" s="18">
         <v>1.3</v>
       </c>
-      <c r="F20" s="15">
+      <c r="F20" s="18">
         <v>100</v>
       </c>
-      <c r="G20" s="11"/>
-      <c r="I20" s="1" t="s">
+      <c r="G20" s="10"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="J20" s="1" t="s">
+      <c r="J20" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K20" s="1">
+      <c r="K20" s="12">
         <f t="shared" si="0"/>
         <v>1300</v>
       </c>
-      <c r="L20" s="8">
+      <c r="L20" s="9">
         <v>1300</v>
       </c>
-      <c r="M20" s="8">
+      <c r="M20" s="9">
         <v>1300</v>
       </c>
-      <c r="N20" s="8" t="s">
+      <c r="N20" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="O20" s="8" t="s">
+      <c r="O20" s="9" t="s">
         <v>77</v>
       </c>
+      <c r="P20" s="7"/>
+      <c r="Q20" s="7"/>
+      <c r="R20" s="7"/>
+      <c r="S20" s="7"/>
+      <c r="T20" s="7"/>
       <c r="U20" s="1"/>
     </row>
     <row r="21" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
+      <c r="A21" s="17" t="s">
         <v>178</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C21" t="s">
+      <c r="C21" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D21" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E21" s="15">
+      <c r="E21" s="18">
         <v>400</v>
       </c>
-      <c r="F21" s="15">
+      <c r="F21" s="18">
         <v>1000</v>
       </c>
-      <c r="G21" s="11"/>
-      <c r="I21" s="1" t="s">
+      <c r="G21" s="10"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="J21" s="1" t="s">
+      <c r="J21" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="K21" s="1">
+      <c r="K21" s="12">
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="9">
         <v>35</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="9">
         <v>25</v>
       </c>
-      <c r="N21" s="8" t="s">
+      <c r="N21" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="O21" s="8" t="s">
+      <c r="O21" s="9" t="s">
         <v>80</v>
       </c>
+      <c r="P21" s="7"/>
+      <c r="Q21" s="7"/>
+      <c r="R21" s="7"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="7"/>
       <c r="U21" s="1"/>
     </row>
     <row r="22" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
+      <c r="A22" s="17" t="s">
         <v>179</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C22" s="17" t="s">
         <v>58</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="E22" s="15">
+      <c r="E22" s="18">
         <v>2.4</v>
       </c>
-      <c r="F22" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G22" s="11"/>
-      <c r="I22" s="1" t="s">
+      <c r="F22" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="G22" s="10"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K22" s="1">
+      <c r="K22" s="12">
         <f t="shared" si="0"/>
         <v>900</v>
       </c>
-      <c r="L22" s="8">
+      <c r="L22" s="9">
         <v>900</v>
       </c>
-      <c r="M22" s="8">
+      <c r="M22" s="9">
         <v>900</v>
       </c>
-      <c r="N22" s="8" t="s">
+      <c r="N22" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O22" s="8" t="s">
+      <c r="O22" s="9" t="s">
         <v>83</v>
       </c>
+      <c r="P22" s="7"/>
+      <c r="Q22" s="7"/>
+      <c r="R22" s="7"/>
+      <c r="S22" s="7"/>
+      <c r="T22" s="7"/>
       <c r="U22" s="1"/>
     </row>
     <row r="23" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
+      <c r="A23" s="17" t="s">
         <v>180</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="31" t="s">
         <v>194</v>
       </c>
-      <c r="E23" s="15">
+      <c r="E23" s="23">
         <v>900</v>
       </c>
-      <c r="F23" s="15">
+      <c r="F23" s="23">
         <v>3000</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="I23" s="1" t="s">
+      <c r="G23" s="10"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="K23" s="1">
+      <c r="K23" s="12">
         <f t="shared" si="0"/>
         <v>3.5</v>
       </c>
-      <c r="L23" s="8">
+      <c r="L23" s="9">
         <v>4</v>
       </c>
-      <c r="M23" s="8">
+      <c r="M23" s="9">
         <v>3</v>
       </c>
-      <c r="N23" s="8" t="s">
+      <c r="N23" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="O23" s="8" t="s">
+      <c r="O23" s="9" t="s">
         <v>86</v>
       </c>
+      <c r="P23" s="7"/>
+      <c r="Q23" s="7"/>
+      <c r="R23" s="7"/>
+      <c r="S23" s="7"/>
+      <c r="T23" s="7"/>
       <c r="U23" s="1"/>
     </row>
     <row r="24" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+      <c r="A24" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G24" s="11"/>
-      <c r="I24" s="1" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="J24" s="1" t="s">
+      <c r="J24" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K24" s="1">
+      <c r="K24" s="12">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="L24" s="8">
+      <c r="L24" s="9">
         <v>150</v>
       </c>
-      <c r="M24" s="8">
+      <c r="M24" s="9">
         <v>150</v>
       </c>
-      <c r="N24" s="8" t="s">
+      <c r="N24" s="9" t="s">
         <v>88</v>
       </c>
-      <c r="O24" s="8" t="s">
+      <c r="O24" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="T24" s="1"/>
+      <c r="P24" s="7"/>
+      <c r="Q24" s="7"/>
+      <c r="R24" s="7"/>
+      <c r="S24" s="7"/>
+      <c r="T24" s="7"/>
       <c r="U24" s="1"/>
     </row>
     <row r="25" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+      <c r="A25" s="17" t="s">
         <v>182</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C25" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="E25" s="15">
+      <c r="E25" s="18">
         <v>15</v>
       </c>
-      <c r="F25" s="15">
+      <c r="F25" s="26">
         <v>1000</v>
       </c>
-      <c r="G25" s="11"/>
-      <c r="I25" s="1" t="s">
+      <c r="G25" s="10"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="J25" s="1" t="s">
+      <c r="J25" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K25" s="1">
+      <c r="K25" s="12">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="L25" s="8">
+      <c r="L25" s="9">
         <v>8</v>
       </c>
-      <c r="M25" s="8">
+      <c r="M25" s="9">
         <v>18</v>
       </c>
-      <c r="N25" s="8" t="s">
+      <c r="N25" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="O25" s="8" t="s">
+      <c r="O25" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="T25" s="1"/>
+      <c r="P25" s="7"/>
+      <c r="Q25" s="7"/>
+      <c r="R25" s="7"/>
+      <c r="S25" s="7"/>
+      <c r="T25" s="7"/>
       <c r="U25" s="1"/>
     </row>
     <row r="26" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
+      <c r="A26" s="17" t="s">
         <v>183</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C26" t="s">
+      <c r="C26" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="37" t="s">
         <v>194</v>
       </c>
-      <c r="E26" s="15">
+      <c r="E26" s="18">
         <v>15</v>
       </c>
-      <c r="F26" s="15">
+      <c r="F26" s="26">
         <v>100</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="I26" s="1" t="s">
+      <c r="G26" s="10"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="J26" s="1" t="s">
+      <c r="J26" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K26" s="1">
+      <c r="K26" s="12">
         <f t="shared" si="0"/>
         <v>355</v>
       </c>
-      <c r="L26" s="8">
+      <c r="L26" s="9">
         <v>400</v>
       </c>
-      <c r="M26" s="8">
+      <c r="M26" s="9">
         <v>310</v>
       </c>
-      <c r="N26" s="8" t="s">
+      <c r="N26" s="9" t="s">
         <v>95</v>
       </c>
-      <c r="O26" s="8" t="s">
+      <c r="O26" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="T26" s="1"/>
+      <c r="P26" s="7"/>
+      <c r="Q26" s="7"/>
+      <c r="R26" s="7"/>
+      <c r="S26" s="7"/>
+      <c r="T26" s="7"/>
       <c r="U26" s="1"/>
     </row>
     <row r="27" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="A27" s="17" t="s">
         <v>140</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="17" t="s">
         <v>193</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="I27" s="1" t="s">
+      <c r="C27" s="22"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="18"/>
+      <c r="F27" s="26"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="J27" s="1" t="s">
+      <c r="J27" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="K27" s="1">
+      <c r="K27" s="12">
         <f t="shared" si="0"/>
         <v>2.0499999999999998</v>
       </c>
-      <c r="L27" s="8">
+      <c r="L27" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="M27" s="8">
+      <c r="M27" s="9">
         <v>1.8</v>
       </c>
-      <c r="N27" s="8" t="s">
+      <c r="N27" s="9" t="s">
         <v>98</v>
       </c>
-      <c r="O27" s="8" t="s">
+      <c r="O27" s="9" t="s">
         <v>99</v>
       </c>
+      <c r="P27" s="7"/>
+      <c r="Q27" s="7"/>
+      <c r="R27" s="7"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="7"/>
       <c r="U27" s="1"/>
     </row>
     <row r="28" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="A28" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="17" t="s">
         <v>127</v>
       </c>
-      <c r="C28" t="s">
+      <c r="C28" s="22" t="s">
         <v>37</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="38" t="s">
         <v>194</v>
       </c>
-      <c r="E28" s="15">
+      <c r="E28" s="30">
         <v>120</v>
       </c>
-      <c r="F28" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="I28" s="1" t="s">
+      <c r="F28" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" s="10"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="J28" s="1" t="s">
+      <c r="J28" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K28" s="1">
+      <c r="K28" s="12">
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="L28" s="8">
+      <c r="L28" s="9">
         <v>45</v>
       </c>
-      <c r="M28" s="8">
+      <c r="M28" s="9">
         <v>45</v>
       </c>
-      <c r="N28" s="8" t="s">
+      <c r="N28" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="O28" s="8" t="s">
+      <c r="O28" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="T28" s="1"/>
+      <c r="P28" s="7"/>
+      <c r="Q28" s="7"/>
+      <c r="R28" s="7"/>
+      <c r="S28" s="7"/>
+      <c r="T28" s="7"/>
       <c r="U28" s="1"/>
     </row>
     <row r="29" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="A29" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="32" t="s">
         <v>191</v>
       </c>
-      <c r="E29" s="15">
+      <c r="E29" s="33">
         <v>300</v>
       </c>
-      <c r="F29" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="I29" s="1" t="s">
+      <c r="F29" s="34" t="s">
+        <v>203</v>
+      </c>
+      <c r="G29" s="10"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="J29" s="1" t="s">
+      <c r="J29" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K29" s="1">
+      <c r="K29" s="12">
         <f t="shared" si="0"/>
         <v>700</v>
       </c>
-      <c r="L29" s="8">
+      <c r="L29" s="9">
         <v>700</v>
       </c>
-      <c r="M29" s="8">
+      <c r="M29" s="9">
         <v>700</v>
       </c>
-      <c r="N29" s="8" t="s">
+      <c r="N29" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="O29" s="8" t="s">
+      <c r="O29" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="T29" s="1"/>
+      <c r="P29" s="7"/>
+      <c r="Q29" s="7"/>
+      <c r="R29" s="7"/>
+      <c r="S29" s="7"/>
+      <c r="T29" s="7"/>
       <c r="U29" s="1"/>
     </row>
     <row r="30" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="A30" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G30" s="11"/>
-      <c r="I30" s="1" t="s">
+      <c r="C30" s="17"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="29"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="J30" s="1" t="s">
+      <c r="J30" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="K30" s="1">
+      <c r="K30" s="12">
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="L30" s="8">
+      <c r="L30" s="9">
         <v>55</v>
       </c>
-      <c r="M30" s="8">
+      <c r="M30" s="9">
         <v>55</v>
       </c>
-      <c r="N30" s="8" t="s">
+      <c r="N30" s="9" t="s">
         <v>109</v>
       </c>
-      <c r="O30" s="8" t="s">
+      <c r="O30" s="9" t="s">
         <v>110</v>
       </c>
-      <c r="T30" s="1"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
       <c r="U30" s="1"/>
     </row>
     <row r="31" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
+      <c r="A31" s="17" t="s">
         <v>187</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="I31" s="1" t="s">
+      <c r="C31" s="17"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="25"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="J31" s="1" t="s">
+      <c r="J31" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K31" s="1">
+      <c r="K31" s="12">
         <f t="shared" si="0"/>
         <v>9.5</v>
       </c>
-      <c r="L31" s="8">
+      <c r="L31" s="9">
         <v>11</v>
       </c>
-      <c r="M31" s="8">
+      <c r="M31" s="9">
         <v>8</v>
       </c>
-      <c r="N31" s="8" t="s">
+      <c r="N31" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="O31" s="8" t="s">
+      <c r="O31" s="9" t="s">
         <v>113</v>
       </c>
-      <c r="T31" s="1"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
       <c r="U31" s="1"/>
     </row>
     <row r="32" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+      <c r="A32" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="17" t="s">
         <v>191</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="I32" s="1" t="s">
+      <c r="C32" s="17"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J32" s="1" t="s">
+      <c r="J32" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="K32" s="1">
+      <c r="K32" s="12">
         <f t="shared" si="0"/>
         <v>4.7</v>
       </c>
-      <c r="L32" s="8">
+      <c r="L32" s="9">
         <v>4.7</v>
       </c>
-      <c r="M32" s="8">
+      <c r="M32" s="9">
         <v>4.7</v>
       </c>
-      <c r="N32" s="8" t="s">
+      <c r="N32" s="9" t="s">
         <v>114</v>
       </c>
-      <c r="O32" s="8" t="s">
+      <c r="O32" s="9" t="s">
         <v>115</v>
       </c>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
       <c r="U32" s="1"/>
     </row>
     <row r="33" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="A33" s="17" t="s">
         <v>189</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="22" t="s">
         <v>195</v>
       </c>
-      <c r="E33" s="15">
+      <c r="E33" s="27">
         <v>20</v>
       </c>
-      <c r="F33" s="15" t="s">
-        <v>204</v>
-      </c>
-      <c r="G33" s="11"/>
-      <c r="I33" s="1" t="s">
+      <c r="F33" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="12" t="s">
         <v>6</v>
       </c>
       <c r="J33" s="13" t="s">
@@ -2355,28 +3317,41 @@
         <f t="shared" si="0"/>
         <v>1.5</v>
       </c>
-      <c r="L33" s="8">
+      <c r="L33" s="9">
         <v>1.5</v>
       </c>
-      <c r="M33" s="8">
+      <c r="M33" s="9">
         <v>1.5</v>
       </c>
-      <c r="N33" s="8" t="s">
+      <c r="N33" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="O33" s="8" t="s">
+      <c r="O33" s="9" t="s">
         <v>117</v>
       </c>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
       <c r="U33" s="1"/>
     </row>
     <row r="34" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I34" s="1" t="s">
+      <c r="A34" s="7"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="8"/>
+      <c r="F34" s="8"/>
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="J34" t="s">
+      <c r="J34" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="K34" s="1">
+      <c r="K34" s="12">
         <f t="shared" si="0"/>
         <v>2.2999999999999998</v>
       </c>
@@ -2386,111 +3361,413 @@
       <c r="M34" s="9">
         <v>2.2999999999999998</v>
       </c>
-      <c r="N34" s="8" t="s">
+      <c r="N34" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="O34" s="8" t="s">
+      <c r="O34" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="T34" s="1"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
       <c r="U34" s="1"/>
     </row>
     <row r="35" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="T35" s="1"/>
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="7"/>
+      <c r="D35" s="7"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="8"/>
+      <c r="G35" s="7"/>
+      <c r="H35" s="7"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
       <c r="U35" s="1"/>
     </row>
     <row r="36" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A36" s="7"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="8"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
       <c r="U36" s="1"/>
     </row>
     <row r="37" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="T37" s="1"/>
+      <c r="A37" s="7"/>
+      <c r="B37" s="7"/>
+      <c r="C37" s="7"/>
+      <c r="D37" s="7"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="7"/>
+      <c r="M37" s="7"/>
+      <c r="N37" s="7"/>
+      <c r="O37" s="7"/>
+      <c r="P37" s="7"/>
+      <c r="Q37" s="7"/>
+      <c r="R37" s="7"/>
+      <c r="S37" s="7"/>
+      <c r="T37" s="7"/>
       <c r="U37" s="1"/>
     </row>
     <row r="38" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I38" s="1" t="s">
+      <c r="A38" s="7"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
+      <c r="D38" s="7"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="8"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="J38" s="1" t="s">
+      <c r="J38" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="K38" s="1"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="7"/>
+      <c r="M38" s="7"/>
+      <c r="N38" s="7"/>
+      <c r="O38" s="7"/>
+      <c r="P38" s="7"/>
+      <c r="Q38" s="7"/>
+      <c r="R38" s="7"/>
+      <c r="S38" s="7"/>
+      <c r="T38" s="7"/>
       <c r="U38" s="1"/>
     </row>
     <row r="39" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I39" s="1" t="s">
+      <c r="A39" s="7"/>
+      <c r="B39" s="7"/>
+      <c r="C39" s="7"/>
+      <c r="D39" s="7"/>
+      <c r="E39" s="8"/>
+      <c r="F39" s="8"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="J39" s="1" t="s">
+      <c r="J39" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="K39" s="1"/>
+      <c r="K39" s="12"/>
+      <c r="L39" s="7"/>
+      <c r="M39" s="7"/>
+      <c r="N39" s="7"/>
+      <c r="O39" s="7"/>
+      <c r="P39" s="7"/>
+      <c r="Q39" s="7"/>
+      <c r="R39" s="7"/>
+      <c r="S39" s="7"/>
+      <c r="T39" s="7"/>
       <c r="U39" s="1"/>
     </row>
     <row r="40" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I40" s="1" t="s">
+      <c r="A40" s="7"/>
+      <c r="B40" s="7"/>
+      <c r="C40" s="7"/>
+      <c r="D40" s="7"/>
+      <c r="E40" s="8"/>
+      <c r="F40" s="8"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="J40" s="1" t="s">
+      <c r="J40" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="K40" s="1"/>
+      <c r="K40" s="12"/>
+      <c r="L40" s="7"/>
+      <c r="M40" s="7"/>
+      <c r="N40" s="7"/>
+      <c r="O40" s="7"/>
+      <c r="P40" s="7"/>
+      <c r="Q40" s="7"/>
+      <c r="R40" s="7"/>
+      <c r="S40" s="7"/>
+      <c r="T40" s="7"/>
       <c r="U40" s="1"/>
     </row>
     <row r="41" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I41" s="1" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="7"/>
+      <c r="C41" s="7"/>
+      <c r="D41" s="7"/>
+      <c r="E41" s="8"/>
+      <c r="F41" s="8"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="J41" s="1" t="s">
+      <c r="J41" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="K41" s="1"/>
-      <c r="T41" s="1"/>
+      <c r="K41" s="12"/>
+      <c r="L41" s="7"/>
+      <c r="M41" s="7"/>
+      <c r="N41" s="7"/>
+      <c r="O41" s="7"/>
+      <c r="P41" s="7"/>
+      <c r="Q41" s="7"/>
+      <c r="R41" s="7"/>
+      <c r="S41" s="7"/>
+      <c r="T41" s="7"/>
       <c r="U41" s="1"/>
     </row>
-    <row r="42" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I42" s="1" t="s">
+    <row r="42" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A42" s="7"/>
+      <c r="B42" s="7"/>
+      <c r="C42" s="7"/>
+      <c r="D42" s="7"/>
+      <c r="E42" s="8"/>
+      <c r="F42" s="8"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J42" s="1" t="s">
+      <c r="J42" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="K42" s="1"/>
-    </row>
-    <row r="43" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I43" s="1" t="s">
+      <c r="K42" s="12"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="7"/>
+      <c r="Q42" s="7"/>
+      <c r="R42" s="7"/>
+      <c r="S42" s="7"/>
+      <c r="T42" s="7"/>
+    </row>
+    <row r="43" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A43" s="7"/>
+      <c r="B43" s="7"/>
+      <c r="C43" s="7"/>
+      <c r="D43" s="7"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="J43" s="1" t="s">
+      <c r="J43" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="K43" s="1"/>
-    </row>
-    <row r="44" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I44" s="1" t="s">
+      <c r="K43" s="12"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
+      <c r="R43" s="7"/>
+      <c r="S43" s="7"/>
+      <c r="T43" s="7"/>
+    </row>
+    <row r="44" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A44" s="7"/>
+      <c r="B44" s="7"/>
+      <c r="C44" s="7"/>
+      <c r="D44" s="7"/>
+      <c r="E44" s="8"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="J44" s="1" t="s">
+      <c r="J44" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="1"/>
-    </row>
-    <row r="45" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I45" s="1" t="s">
+      <c r="K44" s="12"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="7"/>
+      <c r="Q44" s="7"/>
+      <c r="R44" s="7"/>
+      <c r="S44" s="7"/>
+      <c r="T44" s="7"/>
+    </row>
+    <row r="45" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A45" s="7"/>
+      <c r="B45" s="7"/>
+      <c r="C45" s="7"/>
+      <c r="D45" s="7"/>
+      <c r="E45" s="8"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="J45" s="1" t="s">
+      <c r="J45" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="K45" s="1"/>
-    </row>
-    <row r="46" spans="1:21" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I46" s="1" t="s">
+      <c r="K45" s="12"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="7"/>
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+    </row>
+    <row r="46" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
+      <c r="C46" s="7"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="8"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="1" t="s">
+      <c r="J46" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="K46" s="1"/>
+      <c r="K46" s="12"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="7"/>
+      <c r="Q46" s="7"/>
+      <c r="R46" s="7"/>
+      <c r="S46" s="7"/>
+      <c r="T46" s="7"/>
+    </row>
+    <row r="47" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
+      <c r="C47" s="7"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="8"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="12"/>
+      <c r="J47" s="12"/>
+      <c r="K47" s="12"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="7"/>
+      <c r="Q47" s="7"/>
+      <c r="R47" s="7"/>
+      <c r="S47" s="7"/>
+      <c r="T47" s="7"/>
+    </row>
+    <row r="48" spans="1:21" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A48" s="7"/>
+      <c r="B48" s="7"/>
+      <c r="C48" s="7"/>
+      <c r="D48" s="7"/>
+      <c r="E48" s="8"/>
+      <c r="F48" s="8"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="12"/>
+      <c r="J48" s="12"/>
+      <c r="K48" s="12"/>
+      <c r="L48" s="7"/>
+      <c r="M48" s="7"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="7"/>
+      <c r="P48" s="7"/>
+      <c r="Q48" s="7"/>
+      <c r="R48" s="7"/>
+      <c r="S48" s="7"/>
+      <c r="T48" s="7"/>
+    </row>
+    <row r="49" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A49" s="7"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="8"/>
+      <c r="F49" s="8"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="12"/>
+      <c r="J49" s="12"/>
+      <c r="K49" s="12"/>
+      <c r="L49" s="7"/>
+      <c r="M49" s="7"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="7"/>
+      <c r="P49" s="7"/>
+      <c r="Q49" s="7"/>
+      <c r="R49" s="7"/>
+      <c r="S49" s="7"/>
+      <c r="T49" s="7"/>
+    </row>
+    <row r="50" spans="1:20" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A50" s="7"/>
+      <c r="B50" s="7"/>
+      <c r="C50" s="7"/>
+      <c r="D50" s="7"/>
+      <c r="E50" s="8"/>
+      <c r="F50" s="8"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="12"/>
+      <c r="J50" s="12"/>
+      <c r="K50" s="12"/>
+      <c r="L50" s="7"/>
+      <c r="M50" s="7"/>
+      <c r="N50" s="7"/>
+      <c r="O50" s="7"/>
+      <c r="P50" s="7"/>
+      <c r="Q50" s="7"/>
+      <c r="R50" s="7"/>
+      <c r="S50" s="7"/>
+      <c r="T50" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2498,7 +3775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A5:AMK46"/>
   <sheetViews>
@@ -3015,7 +4292,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:AMK35"/>
   <sheetViews>
@@ -3626,7 +4903,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:I7"/>
   <sheetViews>
@@ -3638,24 +4915,24 @@
   <sheetData>
     <row r="2" spans="3:9" x14ac:dyDescent="0.25">
       <c r="D2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H2" t="s">
         <v>209</v>
       </c>
-      <c r="H2" t="s">
-        <v>210</v>
-      </c>
       <c r="I2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="4" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D4">
         <v>3.75</v>
       </c>
       <c r="F4" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="H4">
         <f>2000*0.45/3.75</f>
@@ -3668,13 +4945,13 @@
     </row>
     <row r="5" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="H5">
         <f>2000*0.1/4</f>
@@ -3687,7 +4964,7 @@
     </row>
     <row r="6" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D6">
         <v>2</v>
@@ -3695,13 +4972,13 @@
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D7">
         <v>9</v>
       </c>
       <c r="F7" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H7">
         <f>2000*0.2/9</f>
